--- a/excel/t_pve_rule_leagueAwardDay_Server..xlsx
+++ b/excel/t_pve_rule_leagueAwardDay_Server..xlsx
@@ -9,15 +9,13 @@
   <sheets>
     <sheet name="LeagueAwardDay" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeagueAwardDay!$A$1:$I$345</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="241">
   <si>
     <t>id</t>
   </si>
@@ -88,7 +86,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>{"itemAwards":[{"itemId":501,"num":14},{"itemId":2,"num":10000}]}</t>
+    <t>{"itemAwards":[{"itemId":501,"num":14},{"itemId":2,"num":10000},{"itemId":1,"num":60}]}</t>
   </si>
   <si>
     <t>6</t>
@@ -124,22 +122,37 @@
     <t>37</t>
   </si>
   <si>
-    <t>{"itemAwards":[{"itemId":501,"num":15},{"itemId":2,"num":11000}]}</t>
+    <t>{"itemAwards":[{"itemId":501,"num":14},{"itemId":2,"num":10000},{"itemId":20505,"num":1}]}</t>
   </si>
   <si>
-    <t>{"itemAwards":[{"itemId":501,"num":16},{"itemId":2,"num":12000}]}</t>
+    <t>{"itemAwards":[{"itemId":501,"num":15},{"itemId":2,"num":11000},{"itemId":1,"num":65}]}</t>
+  </si>
+  <si>
+    <t>{"itemAwards":[{"itemId":501,"num":15},{"itemId":2,"num":11000},{"itemId":20505,"num":1}]}</t>
+  </si>
+  <si>
+    <t>{"itemAwards":[{"itemId":501,"num":16},{"itemId":2,"num":12000},{"itemId":1,"num":70}]}</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>{"itemAwards":[{"itemId":501,"num":17},{"itemId":2,"num":13000}]}</t>
+    <t>{"itemAwards":[{"itemId":501,"num":16},{"itemId":2,"num":12000},{"itemId":20505,"num":1}]}</t>
   </si>
   <si>
-    <t>{"itemAwards":[{"itemId":501,"num":18},{"itemId":2,"num":14000}]}</t>
+    <t>{"itemAwards":[{"itemId":501,"num":17},{"itemId":2,"num":13000},{"itemId":1,"num":75}]}</t>
   </si>
   <si>
-    <t>{"itemAwards":[{"itemId":501,"num":19},{"itemId":2,"num":15000}]}</t>
+    <t>{"itemAwards":[{"itemId":501,"num":17},{"itemId":2,"num":13000},{"itemId":20505,"num":1}]}</t>
+  </si>
+  <si>
+    <t>{"itemAwards":[{"itemId":501,"num":18},{"itemId":2,"num":14000},{"itemId":1,"num":80}]}</t>
+  </si>
+  <si>
+    <t>{"itemAwards":[{"itemId":501,"num":18},{"itemId":2,"num":14000},{"itemId":20505,"num":1}]}</t>
+  </si>
+  <si>
+    <t>{"itemAwards":[{"itemId":501,"num":19},{"itemId":2,"num":15000},{"itemId":1,"num":85}]}</t>
   </si>
   <si>
     <t>14</t>
@@ -157,10 +170,13 @@
     <t>35</t>
   </si>
   <si>
+    <t>{"itemAwards":[{"itemId":501,"num":19},{"itemId":2,"num":15000},{"itemId":20505,"num":1}]}</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>{"itemAwards":[{"itemId":501,"num":20},{"itemId":2,"num":16000}]}</t>
+    <t>{"itemAwards":[{"itemId":501,"num":20},{"itemId":2,"num":16000},{"itemId":1,"num":90}]}</t>
   </si>
   <si>
     <t>16</t>
@@ -178,16 +194,28 @@
     <t>38</t>
   </si>
   <si>
-    <t>{"itemAwards":[{"itemId":501,"num":21},{"itemId":2,"num":17000}]}</t>
+    <t>{"itemAwards":[{"itemId":501,"num":20},{"itemId":2,"num":16000},{"itemId":20505,"num":1}]}</t>
   </si>
   <si>
-    <t>{"itemAwards":[{"itemId":501,"num":22},{"itemId":2,"num":18000}]}</t>
+    <t>{"itemAwards":[{"itemId":501,"num":21},{"itemId":2,"num":17000},{"itemId":1,"num":95}]}</t>
+  </si>
+  <si>
+    <t>{"itemAwards":[{"itemId":501,"num":21},{"itemId":2,"num":17000},{"itemId":20505,"num":1}]}</t>
+  </si>
+  <si>
+    <t>{"itemAwards":[{"itemId":501,"num":22},{"itemId":2,"num":18000},{"itemId":1,"num":100}]}</t>
+  </si>
+  <si>
+    <t>{"itemAwards":[{"itemId":501,"num":22},{"itemId":2,"num":18000},{"itemId":20505,"num":1}]}</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>{"itemAwards":[{"itemId":501,"num":23},{"itemId":2,"num":19000}]}</t>
+    <t>{"itemAwards":[{"itemId":501,"num":23},{"itemId":2,"num":19000},{"itemId":1,"num":105}]}</t>
+  </si>
+  <si>
+    <t>{"itemAwards":[{"itemId":501,"num":23},{"itemId":2,"num":19000},{"itemId":20505,"num":1}]}</t>
   </si>
   <si>
     <t>Tactics Cards</t>
@@ -717,10 +745,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
@@ -754,38 +782,16 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -799,16 +805,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -822,9 +820,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -839,7 +852,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -847,23 +875,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u val="single"/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -877,7 +905,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1220,7 +1248,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1232,61 +1260,61 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyProtection="0">
@@ -1295,25 +1323,25 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -1328,10 +1356,10 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -1340,22 +1368,22 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
   </cellStyleXfs>
@@ -1795,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <dimension ref="A1:XFD345"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A305">
-      <selection pane="topLeft" activeCell="I4" sqref="I4:I345"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13333333333333" defaultRowHeight="16.5"/>
@@ -1808,7 +1836,7 @@
     <col min="6" max="6" width="5.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="67.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="93.875" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18541,7 +18569,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -18568,7 +18596,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -18595,7 +18623,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
@@ -18622,7 +18650,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -18649,7 +18677,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
@@ -18676,7 +18704,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
@@ -18703,7 +18731,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
@@ -18730,7 +18758,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
@@ -18757,7 +18785,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
@@ -18784,7 +18812,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
@@ -18811,7 +18839,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
@@ -18838,7 +18866,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
@@ -18865,7 +18893,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
@@ -18892,7 +18920,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -18919,7 +18947,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
@@ -18946,7 +18974,7 @@
         <v>3</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
@@ -18964,7 +18992,7 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G29" s="5">
         <v>0</v>
@@ -18973,7 +19001,7 @@
         <v>3</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
@@ -19000,7 +19028,7 @@
         <v>3</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
@@ -19027,7 +19055,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
@@ -19054,7 +19082,7 @@
         <v>3</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
@@ -19081,7 +19109,7 @@
         <v>3</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
@@ -19108,7 +19136,7 @@
         <v>4</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
@@ -19135,7 +19163,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
@@ -19162,7 +19190,7 @@
         <v>4</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
@@ -19189,7 +19217,7 @@
         <v>4</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -19216,7 +19244,7 @@
         <v>4</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
@@ -19243,7 +19271,7 @@
         <v>4</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -19270,7 +19298,7 @@
         <v>4</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -19297,7 +19325,7 @@
         <v>4</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -19324,7 +19352,7 @@
         <v>4</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
@@ -19351,7 +19379,7 @@
         <v>4</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
@@ -19378,7 +19406,7 @@
         <v>5</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
@@ -19405,7 +19433,7 @@
         <v>5</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
@@ -19432,7 +19460,7 @@
         <v>5</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
@@ -19459,7 +19487,7 @@
         <v>5</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
@@ -19486,7 +19514,7 @@
         <v>5</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
@@ -19513,7 +19541,7 @@
         <v>5</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
@@ -19540,7 +19568,7 @@
         <v>5</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
@@ -19567,7 +19595,7 @@
         <v>5</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
@@ -19594,7 +19622,7 @@
         <v>5</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="16.5">
@@ -19621,7 +19649,7 @@
         <v>5</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
@@ -19648,7 +19676,7 @@
         <v>6</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
@@ -19675,7 +19703,7 @@
         <v>6</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
@@ -19702,7 +19730,7 @@
         <v>6</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
@@ -19720,7 +19748,7 @@
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G57" s="5">
         <v>0</v>
@@ -19729,7 +19757,7 @@
         <v>6</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
@@ -19756,7 +19784,7 @@
         <v>6</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -19774,7 +19802,7 @@
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G59" s="5">
         <v>0</v>
@@ -19783,7 +19811,7 @@
         <v>6</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5">
@@ -19801,7 +19829,7 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G60" s="5">
         <v>0</v>
@@ -19810,7 +19838,7 @@
         <v>6</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
@@ -19828,7 +19856,7 @@
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G61" s="5">
         <v>0</v>
@@ -19837,7 +19865,7 @@
         <v>6</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
@@ -19855,7 +19883,7 @@
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G62" s="5">
         <v>0</v>
@@ -19864,7 +19892,7 @@
         <v>6</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
@@ -19891,7 +19919,7 @@
         <v>6</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
@@ -19909,7 +19937,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G64" s="5">
         <v>0</v>
@@ -19918,7 +19946,7 @@
         <v>7</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
@@ -19945,7 +19973,7 @@
         <v>7</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5">
@@ -19972,7 +20000,7 @@
         <v>7</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
@@ -19990,7 +20018,7 @@
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G67" s="5">
         <v>0</v>
@@ -19999,7 +20027,7 @@
         <v>7</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
@@ -20017,7 +20045,7 @@
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G68" s="5">
         <v>0</v>
@@ -20026,7 +20054,7 @@
         <v>7</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
@@ -20044,7 +20072,7 @@
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G69" s="5">
         <v>0</v>
@@ -20053,7 +20081,7 @@
         <v>7</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
@@ -20071,7 +20099,7 @@
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G70" s="5">
         <v>0</v>
@@ -20080,7 +20108,7 @@
         <v>7</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
@@ -20098,7 +20126,7 @@
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G71" s="5">
         <v>0</v>
@@ -20107,7 +20135,7 @@
         <v>7</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
@@ -20125,7 +20153,7 @@
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G72" s="5">
         <v>0</v>
@@ -20134,7 +20162,7 @@
         <v>7</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
@@ -20152,7 +20180,7 @@
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G73" s="5">
         <v>0</v>
@@ -20161,7 +20189,7 @@
         <v>7</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="16.5">
@@ -20188,7 +20216,7 @@
         <v>8</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.5">
@@ -20215,7 +20243,7 @@
         <v>8</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5">
@@ -20242,7 +20270,7 @@
         <v>8</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -20269,7 +20297,7 @@
         <v>8</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
@@ -20296,7 +20324,7 @@
         <v>8</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
@@ -20323,7 +20351,7 @@
         <v>8</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5">
@@ -20350,7 +20378,7 @@
         <v>8</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
@@ -20377,7 +20405,7 @@
         <v>8</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
@@ -20404,7 +20432,7 @@
         <v>8</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
@@ -20431,7 +20459,7 @@
         <v>8</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
@@ -20458,7 +20486,7 @@
         <v>9</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
@@ -20485,7 +20513,7 @@
         <v>9</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
@@ -20512,7 +20540,7 @@
         <v>9</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
@@ -20539,7 +20567,7 @@
         <v>9</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
@@ -20566,7 +20594,7 @@
         <v>9</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
@@ -20593,7 +20621,7 @@
         <v>9</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
@@ -20620,7 +20648,7 @@
         <v>9</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
@@ -20647,7 +20675,7 @@
         <v>9</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
@@ -20674,7 +20702,7 @@
         <v>9</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5">
@@ -20692,7 +20720,7 @@
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G93" s="5">
         <v>0</v>
@@ -20701,7 +20729,7 @@
         <v>9</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
@@ -20719,7 +20747,7 @@
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G94" s="5">
         <v>0</v>
@@ -20728,7 +20756,7 @@
         <v>10</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
@@ -20755,7 +20783,7 @@
         <v>10</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
@@ -20782,7 +20810,7 @@
         <v>10</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
@@ -20809,7 +20837,7 @@
         <v>10</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
@@ -20836,7 +20864,7 @@
         <v>10</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
@@ -20863,7 +20891,7 @@
         <v>10</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
@@ -20890,7 +20918,7 @@
         <v>10</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
@@ -20917,7 +20945,7 @@
         <v>10</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
@@ -20944,7 +20972,7 @@
         <v>10</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
@@ -20971,7 +20999,7 @@
         <v>10</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
@@ -20985,7 +21013,7 @@
         <v>20</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6">
@@ -20998,7 +21026,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5">
@@ -21012,7 +21040,7 @@
         <v>20</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6">
@@ -21025,7 +21053,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
@@ -21039,10 +21067,10 @@
         <v>32</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F106" s="6">
         <v>0</v>
@@ -21054,7 +21082,7 @@
         <v>1</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
@@ -21068,10 +21096,10 @@
         <v>32</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F107" s="6">
         <v>0</v>
@@ -21083,7 +21111,7 @@
         <v>1</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
@@ -21097,10 +21125,10 @@
         <v>32</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F108" s="6">
         <v>0</v>
@@ -21112,7 +21140,7 @@
         <v>1</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5">
@@ -21126,10 +21154,10 @@
         <v>32</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F109" s="6">
         <v>0</v>
@@ -21141,7 +21169,7 @@
         <v>1</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
@@ -21155,10 +21183,10 @@
         <v>32</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F110" s="6">
         <v>0</v>
@@ -21170,7 +21198,7 @@
         <v>1</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
@@ -21184,10 +21212,10 @@
         <v>32</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F111" s="6">
         <v>0</v>
@@ -21199,7 +21227,7 @@
         <v>1</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
@@ -21213,10 +21241,10 @@
         <v>32</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F112" s="6">
         <v>0</v>
@@ -21228,7 +21256,7 @@
         <v>1</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
@@ -21242,10 +21270,10 @@
         <v>32</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F113" s="6">
         <v>0</v>
@@ -21257,7 +21285,7 @@
         <v>1</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
@@ -21271,10 +21299,10 @@
         <v>32</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F114" s="6">
         <v>0</v>
@@ -21286,7 +21314,7 @@
         <v>1</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
@@ -21300,10 +21328,10 @@
         <v>32</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F115" s="6">
         <v>0</v>
@@ -21315,7 +21343,7 @@
         <v>1</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
@@ -21329,10 +21357,10 @@
         <v>32</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F116" s="6">
         <v>0</v>
@@ -21344,7 +21372,7 @@
         <v>1</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5">
@@ -21358,10 +21386,10 @@
         <v>32</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F117" s="6">
         <v>0</v>
@@ -21373,7 +21401,7 @@
         <v>1</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
@@ -21387,10 +21415,10 @@
         <v>32</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F118" s="6">
         <v>0</v>
@@ -21402,7 +21430,7 @@
         <v>2</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5">
@@ -21416,10 +21444,10 @@
         <v>32</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F119" s="6">
         <v>0</v>
@@ -21431,7 +21459,7 @@
         <v>2</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -21445,10 +21473,10 @@
         <v>32</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F120" s="6">
         <v>0</v>
@@ -21460,7 +21488,7 @@
         <v>2</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
@@ -21474,10 +21502,10 @@
         <v>32</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F121" s="6">
         <v>0</v>
@@ -21489,7 +21517,7 @@
         <v>2</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
@@ -21503,10 +21531,10 @@
         <v>32</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F122" s="6">
         <v>0</v>
@@ -21518,7 +21546,7 @@
         <v>2</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
@@ -21532,10 +21560,10 @@
         <v>32</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F123" s="6">
         <v>0</v>
@@ -21547,7 +21575,7 @@
         <v>2</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
@@ -21561,10 +21589,10 @@
         <v>32</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F124" s="6">
         <v>0</v>
@@ -21576,7 +21604,7 @@
         <v>2</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
@@ -21590,10 +21618,10 @@
         <v>32</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F125" s="6">
         <v>0</v>
@@ -21605,7 +21633,7 @@
         <v>2</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
@@ -21619,10 +21647,10 @@
         <v>32</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F126" s="6">
         <v>0</v>
@@ -21634,7 +21662,7 @@
         <v>2</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
@@ -21648,10 +21676,10 @@
         <v>32</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F127" s="6">
         <v>0</v>
@@ -21663,7 +21691,7 @@
         <v>2</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5">
@@ -21677,10 +21705,10 @@
         <v>32</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F128" s="6">
         <v>0</v>
@@ -21692,7 +21720,7 @@
         <v>2</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
@@ -21706,10 +21734,10 @@
         <v>32</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F129" s="6">
         <v>0</v>
@@ -21721,7 +21749,7 @@
         <v>2</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
@@ -21735,10 +21763,10 @@
         <v>32</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F130" s="6">
         <v>0</v>
@@ -21750,7 +21778,7 @@
         <v>3</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
@@ -21764,10 +21792,10 @@
         <v>32</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F131" s="6">
         <v>0</v>
@@ -21779,7 +21807,7 @@
         <v>3</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
@@ -21793,10 +21821,10 @@
         <v>32</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F132" s="6">
         <v>0</v>
@@ -21808,7 +21836,7 @@
         <v>3</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
@@ -21822,10 +21850,10 @@
         <v>32</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F133" s="6">
         <v>0</v>
@@ -21837,7 +21865,7 @@
         <v>3</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5">
@@ -21851,10 +21879,10 @@
         <v>32</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F134" s="6">
         <v>0</v>
@@ -21866,7 +21894,7 @@
         <v>3</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
@@ -21880,10 +21908,10 @@
         <v>32</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F135" s="6">
         <v>0</v>
@@ -21895,7 +21923,7 @@
         <v>3</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
@@ -21909,10 +21937,10 @@
         <v>32</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F136" s="6">
         <v>0</v>
@@ -21924,7 +21952,7 @@
         <v>3</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
@@ -21938,10 +21966,10 @@
         <v>32</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F137" s="6">
         <v>0</v>
@@ -21953,7 +21981,7 @@
         <v>3</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
@@ -21967,10 +21995,10 @@
         <v>32</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F138" s="6">
         <v>0</v>
@@ -21982,7 +22010,7 @@
         <v>3</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
@@ -21996,10 +22024,10 @@
         <v>32</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F139" s="6">
         <v>0</v>
@@ -22011,7 +22039,7 @@
         <v>3</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
@@ -22025,10 +22053,10 @@
         <v>32</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F140" s="6">
         <v>0</v>
@@ -22040,7 +22068,7 @@
         <v>3</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
@@ -22054,10 +22082,10 @@
         <v>32</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F141" s="6">
         <v>0</v>
@@ -22069,7 +22097,7 @@
         <v>3</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
@@ -22083,10 +22111,10 @@
         <v>32</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F142" s="6">
         <v>0</v>
@@ -22098,7 +22126,7 @@
         <v>4</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
@@ -22112,10 +22140,10 @@
         <v>32</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F143" s="6">
         <v>0</v>
@@ -22127,7 +22155,7 @@
         <v>4</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
@@ -22141,10 +22169,10 @@
         <v>32</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F144" s="6">
         <v>0</v>
@@ -22156,7 +22184,7 @@
         <v>4</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
@@ -22170,10 +22198,10 @@
         <v>32</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F145" s="6">
         <v>0</v>
@@ -22185,7 +22213,7 @@
         <v>4</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
@@ -22199,10 +22227,10 @@
         <v>32</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F146" s="6">
         <v>0</v>
@@ -22214,7 +22242,7 @@
         <v>4</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -22228,10 +22256,10 @@
         <v>32</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F147" s="6">
         <v>0</v>
@@ -22243,7 +22271,7 @@
         <v>4</v>
       </c>
       <c r="I147" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -22257,10 +22285,10 @@
         <v>32</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F148" s="6">
         <v>0</v>
@@ -22272,7 +22300,7 @@
         <v>4</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
@@ -22286,10 +22314,10 @@
         <v>32</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F149" s="6">
         <v>0</v>
@@ -22301,7 +22329,7 @@
         <v>4</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
@@ -22315,10 +22343,10 @@
         <v>32</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F150" s="6">
         <v>0</v>
@@ -22330,7 +22358,7 @@
         <v>4</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
@@ -22344,10 +22372,10 @@
         <v>32</v>
       </c>
       <c r="D151" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F151" s="6">
         <v>0</v>
@@ -22359,7 +22387,7 @@
         <v>4</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
@@ -22373,10 +22401,10 @@
         <v>32</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F152" s="6">
         <v>0</v>
@@ -22388,7 +22416,7 @@
         <v>4</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -22402,10 +22430,10 @@
         <v>32</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F153" s="6">
         <v>0</v>
@@ -22417,7 +22445,7 @@
         <v>4</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
@@ -22431,10 +22459,10 @@
         <v>32</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F154" s="6">
         <v>0</v>
@@ -22446,7 +22474,7 @@
         <v>5</v>
       </c>
       <c r="I154" s="9" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
@@ -22460,10 +22488,10 @@
         <v>32</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F155" s="6">
         <v>0</v>
@@ -22475,7 +22503,7 @@
         <v>5</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
@@ -22489,10 +22517,10 @@
         <v>32</v>
       </c>
       <c r="D156" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F156" s="6">
         <v>0</v>
@@ -22504,7 +22532,7 @@
         <v>5</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
@@ -22518,10 +22546,10 @@
         <v>32</v>
       </c>
       <c r="D157" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F157" s="6">
         <v>0</v>
@@ -22533,7 +22561,7 @@
         <v>5</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
@@ -22547,10 +22575,10 @@
         <v>32</v>
       </c>
       <c r="D158" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F158" s="6">
         <v>0</v>
@@ -22562,7 +22590,7 @@
         <v>5</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
@@ -22576,10 +22604,10 @@
         <v>32</v>
       </c>
       <c r="D159" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F159" s="6">
         <v>0</v>
@@ -22591,7 +22619,7 @@
         <v>5</v>
       </c>
       <c r="I159" s="9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
@@ -22605,10 +22633,10 @@
         <v>32</v>
       </c>
       <c r="D160" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F160" s="6">
         <v>0</v>
@@ -22620,7 +22648,7 @@
         <v>5</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
@@ -22634,10 +22662,10 @@
         <v>32</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F161" s="6">
         <v>0</v>
@@ -22649,7 +22677,7 @@
         <v>5</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
@@ -22663,10 +22691,10 @@
         <v>32</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F162" s="6">
         <v>0</v>
@@ -22678,7 +22706,7 @@
         <v>5</v>
       </c>
       <c r="I162" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
@@ -22692,10 +22720,10 @@
         <v>32</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F163" s="6">
         <v>0</v>
@@ -22707,7 +22735,7 @@
         <v>5</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
@@ -22721,10 +22749,10 @@
         <v>32</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F164" s="6">
         <v>0</v>
@@ -22736,7 +22764,7 @@
         <v>5</v>
       </c>
       <c r="I164" s="9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
@@ -22750,10 +22778,10 @@
         <v>32</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F165" s="6">
         <v>0</v>
@@ -22765,7 +22793,7 @@
         <v>5</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
@@ -22779,10 +22807,10 @@
         <v>32</v>
       </c>
       <c r="D166" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F166" s="6">
         <v>0</v>
@@ -22794,7 +22822,7 @@
         <v>6</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
@@ -22808,10 +22836,10 @@
         <v>32</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F167" s="6">
         <v>0</v>
@@ -22823,7 +22851,7 @@
         <v>6</v>
       </c>
       <c r="I167" s="9" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
@@ -22837,10 +22865,10 @@
         <v>32</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F168" s="6">
         <v>0</v>
@@ -22852,7 +22880,7 @@
         <v>6</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
@@ -22866,10 +22894,10 @@
         <v>32</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F169" s="6">
         <v>0</v>
@@ -22881,7 +22909,7 @@
         <v>6</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
@@ -22895,10 +22923,10 @@
         <v>32</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F170" s="6">
         <v>0</v>
@@ -22910,7 +22938,7 @@
         <v>6</v>
       </c>
       <c r="I170" s="9" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
@@ -22924,10 +22952,10 @@
         <v>32</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F171" s="6">
         <v>0</v>
@@ -22939,7 +22967,7 @@
         <v>6</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
@@ -22953,10 +22981,10 @@
         <v>32</v>
       </c>
       <c r="D172" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F172" s="6">
         <v>0</v>
@@ -22968,7 +22996,7 @@
         <v>6</v>
       </c>
       <c r="I172" s="9" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
@@ -22982,10 +23010,10 @@
         <v>32</v>
       </c>
       <c r="D173" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F173" s="6">
         <v>0</v>
@@ -22997,7 +23025,7 @@
         <v>6</v>
       </c>
       <c r="I173" s="9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5">
@@ -23011,10 +23039,10 @@
         <v>32</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F174" s="6">
         <v>0</v>
@@ -23026,7 +23054,7 @@
         <v>6</v>
       </c>
       <c r="I174" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
@@ -23040,10 +23068,10 @@
         <v>32</v>
       </c>
       <c r="D175" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F175" s="6">
         <v>0</v>
@@ -23055,7 +23083,7 @@
         <v>6</v>
       </c>
       <c r="I175" s="9" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
@@ -23069,10 +23097,10 @@
         <v>32</v>
       </c>
       <c r="D176" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F176" s="6">
         <v>0</v>
@@ -23084,7 +23112,7 @@
         <v>6</v>
       </c>
       <c r="I176" s="9" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
@@ -23098,10 +23126,10 @@
         <v>32</v>
       </c>
       <c r="D177" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F177" s="6">
         <v>0</v>
@@ -23113,7 +23141,7 @@
         <v>6</v>
       </c>
       <c r="I177" s="9" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
@@ -23127,10 +23155,10 @@
         <v>32</v>
       </c>
       <c r="D178" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F178" s="6">
         <v>0</v>
@@ -23142,7 +23170,7 @@
         <v>7</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
@@ -23156,10 +23184,10 @@
         <v>32</v>
       </c>
       <c r="D179" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F179" s="6">
         <v>0</v>
@@ -23171,7 +23199,7 @@
         <v>7</v>
       </c>
       <c r="I179" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="16.5">
@@ -23185,10 +23213,10 @@
         <v>32</v>
       </c>
       <c r="D180" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F180" s="6">
         <v>0</v>
@@ -23200,7 +23228,7 @@
         <v>7</v>
       </c>
       <c r="I180" s="9" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="16.5">
@@ -23214,10 +23242,10 @@
         <v>32</v>
       </c>
       <c r="D181" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F181" s="6">
         <v>0</v>
@@ -23229,7 +23257,7 @@
         <v>7</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="16.5">
@@ -23243,10 +23271,10 @@
         <v>32</v>
       </c>
       <c r="D182" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F182" s="6">
         <v>0</v>
@@ -23258,7 +23286,7 @@
         <v>7</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="16.5">
@@ -23272,10 +23300,10 @@
         <v>32</v>
       </c>
       <c r="D183" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F183" s="6">
         <v>0</v>
@@ -23287,7 +23315,7 @@
         <v>7</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
@@ -23301,10 +23329,10 @@
         <v>32</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F184" s="6">
         <v>0</v>
@@ -23316,7 +23344,7 @@
         <v>7</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
@@ -23330,10 +23358,10 @@
         <v>32</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F185" s="6">
         <v>0</v>
@@ -23345,7 +23373,7 @@
         <v>7</v>
       </c>
       <c r="I185" s="9" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
@@ -23359,10 +23387,10 @@
         <v>32</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F186" s="6">
         <v>0</v>
@@ -23374,7 +23402,7 @@
         <v>7</v>
       </c>
       <c r="I186" s="9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
@@ -23388,10 +23416,10 @@
         <v>32</v>
       </c>
       <c r="D187" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F187" s="6">
         <v>0</v>
@@ -23403,7 +23431,7 @@
         <v>7</v>
       </c>
       <c r="I187" s="9" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
@@ -23417,10 +23445,10 @@
         <v>32</v>
       </c>
       <c r="D188" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F188" s="6">
         <v>0</v>
@@ -23432,7 +23460,7 @@
         <v>7</v>
       </c>
       <c r="I188" s="9" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
@@ -23446,10 +23474,10 @@
         <v>32</v>
       </c>
       <c r="D189" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F189" s="6">
         <v>0</v>
@@ -23461,7 +23489,7 @@
         <v>7</v>
       </c>
       <c r="I189" s="9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
@@ -23475,10 +23503,10 @@
         <v>32</v>
       </c>
       <c r="D190" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F190" s="6">
         <v>0</v>
@@ -23490,7 +23518,7 @@
         <v>8</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
@@ -23504,10 +23532,10 @@
         <v>32</v>
       </c>
       <c r="D191" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F191" s="6">
         <v>0</v>
@@ -23519,7 +23547,7 @@
         <v>8</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
@@ -23533,10 +23561,10 @@
         <v>32</v>
       </c>
       <c r="D192" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F192" s="6">
         <v>0</v>
@@ -23548,7 +23576,7 @@
         <v>8</v>
       </c>
       <c r="I192" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
@@ -23562,10 +23590,10 @@
         <v>32</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F193" s="6">
         <v>0</v>
@@ -23577,7 +23605,7 @@
         <v>8</v>
       </c>
       <c r="I193" s="9" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
@@ -23591,10 +23619,10 @@
         <v>32</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F194" s="6">
         <v>0</v>
@@ -23606,7 +23634,7 @@
         <v>8</v>
       </c>
       <c r="I194" s="9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
@@ -23620,10 +23648,10 @@
         <v>32</v>
       </c>
       <c r="D195" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F195" s="6">
         <v>0</v>
@@ -23635,7 +23663,7 @@
         <v>8</v>
       </c>
       <c r="I195" s="9" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
@@ -23649,10 +23677,10 @@
         <v>32</v>
       </c>
       <c r="D196" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F196" s="6">
         <v>0</v>
@@ -23664,7 +23692,7 @@
         <v>8</v>
       </c>
       <c r="I196" s="9" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="16.5">
@@ -23678,10 +23706,10 @@
         <v>32</v>
       </c>
       <c r="D197" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F197" s="6">
         <v>0</v>
@@ -23693,7 +23721,7 @@
         <v>8</v>
       </c>
       <c r="I197" s="9" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
@@ -23707,10 +23735,10 @@
         <v>32</v>
       </c>
       <c r="D198" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F198" s="6">
         <v>0</v>
@@ -23722,7 +23750,7 @@
         <v>8</v>
       </c>
       <c r="I198" s="9" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
@@ -23736,10 +23764,10 @@
         <v>32</v>
       </c>
       <c r="D199" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F199" s="6">
         <v>0</v>
@@ -23751,7 +23779,7 @@
         <v>8</v>
       </c>
       <c r="I199" s="9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
@@ -23765,10 +23793,10 @@
         <v>32</v>
       </c>
       <c r="D200" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F200" s="6">
         <v>0</v>
@@ -23780,7 +23808,7 @@
         <v>8</v>
       </c>
       <c r="I200" s="9" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
@@ -23794,10 +23822,10 @@
         <v>32</v>
       </c>
       <c r="D201" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F201" s="6">
         <v>0</v>
@@ -23809,7 +23837,7 @@
         <v>8</v>
       </c>
       <c r="I201" s="9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
@@ -23823,10 +23851,10 @@
         <v>32</v>
       </c>
       <c r="D202" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F202" s="6">
         <v>0</v>
@@ -23838,7 +23866,7 @@
         <v>9</v>
       </c>
       <c r="I202" s="9" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
@@ -23852,10 +23880,10 @@
         <v>32</v>
       </c>
       <c r="D203" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F203" s="6">
         <v>0</v>
@@ -23867,7 +23895,7 @@
         <v>9</v>
       </c>
       <c r="I203" s="9" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
@@ -23881,10 +23909,10 @@
         <v>32</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F204" s="6">
         <v>0</v>
@@ -23896,7 +23924,7 @@
         <v>9</v>
       </c>
       <c r="I204" s="9" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
@@ -23910,10 +23938,10 @@
         <v>32</v>
       </c>
       <c r="D205" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F205" s="6">
         <v>0</v>
@@ -23925,7 +23953,7 @@
         <v>9</v>
       </c>
       <c r="I205" s="9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
@@ -23939,10 +23967,10 @@
         <v>32</v>
       </c>
       <c r="D206" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F206" s="6">
         <v>0</v>
@@ -23954,7 +23982,7 @@
         <v>9</v>
       </c>
       <c r="I206" s="9" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
@@ -23968,10 +23996,10 @@
         <v>32</v>
       </c>
       <c r="D207" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F207" s="6">
         <v>0</v>
@@ -23983,7 +24011,7 @@
         <v>9</v>
       </c>
       <c r="I207" s="9" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5">
@@ -23997,10 +24025,10 @@
         <v>32</v>
       </c>
       <c r="D208" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F208" s="6">
         <v>0</v>
@@ -24012,7 +24040,7 @@
         <v>9</v>
       </c>
       <c r="I208" s="9" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
@@ -24026,10 +24054,10 @@
         <v>32</v>
       </c>
       <c r="D209" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F209" s="6">
         <v>0</v>
@@ -24041,7 +24069,7 @@
         <v>9</v>
       </c>
       <c r="I209" s="9" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
@@ -24055,10 +24083,10 @@
         <v>32</v>
       </c>
       <c r="D210" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F210" s="6">
         <v>0</v>
@@ -24070,7 +24098,7 @@
         <v>9</v>
       </c>
       <c r="I210" s="9" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
@@ -24084,10 +24112,10 @@
         <v>32</v>
       </c>
       <c r="D211" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F211" s="6">
         <v>0</v>
@@ -24099,7 +24127,7 @@
         <v>9</v>
       </c>
       <c r="I211" s="9" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
@@ -24113,10 +24141,10 @@
         <v>32</v>
       </c>
       <c r="D212" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F212" s="6">
         <v>0</v>
@@ -24128,7 +24156,7 @@
         <v>9</v>
       </c>
       <c r="I212" s="9" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
@@ -24142,10 +24170,10 @@
         <v>32</v>
       </c>
       <c r="D213" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F213" s="6">
         <v>0</v>
@@ -24157,7 +24185,7 @@
         <v>9</v>
       </c>
       <c r="I213" s="9" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
@@ -24171,10 +24199,10 @@
         <v>32</v>
       </c>
       <c r="D214" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F214" s="6">
         <v>0</v>
@@ -24186,7 +24214,7 @@
         <v>10</v>
       </c>
       <c r="I214" s="9" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
@@ -24200,10 +24228,10 @@
         <v>32</v>
       </c>
       <c r="D215" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F215" s="6">
         <v>0</v>
@@ -24215,7 +24243,7 @@
         <v>10</v>
       </c>
       <c r="I215" s="9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
@@ -24229,10 +24257,10 @@
         <v>32</v>
       </c>
       <c r="D216" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F216" s="6">
         <v>0</v>
@@ -24244,7 +24272,7 @@
         <v>10</v>
       </c>
       <c r="I216" s="9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
@@ -24258,10 +24286,10 @@
         <v>32</v>
       </c>
       <c r="D217" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F217" s="6">
         <v>0</v>
@@ -24273,7 +24301,7 @@
         <v>10</v>
       </c>
       <c r="I217" s="9" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="16.5">
@@ -24287,10 +24315,10 @@
         <v>32</v>
       </c>
       <c r="D218" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F218" s="6">
         <v>0</v>
@@ -24302,7 +24330,7 @@
         <v>10</v>
       </c>
       <c r="I218" s="9" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
@@ -24316,10 +24344,10 @@
         <v>32</v>
       </c>
       <c r="D219" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F219" s="6">
         <v>0</v>
@@ -24331,7 +24359,7 @@
         <v>10</v>
       </c>
       <c r="I219" s="9" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
@@ -24345,10 +24373,10 @@
         <v>32</v>
       </c>
       <c r="D220" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F220" s="6">
         <v>0</v>
@@ -24360,7 +24388,7 @@
         <v>10</v>
       </c>
       <c r="I220" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
@@ -24374,10 +24402,10 @@
         <v>32</v>
       </c>
       <c r="D221" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F221" s="6">
         <v>0</v>
@@ -24389,7 +24417,7 @@
         <v>10</v>
       </c>
       <c r="I221" s="9" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
@@ -24403,10 +24431,10 @@
         <v>32</v>
       </c>
       <c r="D222" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F222" s="6">
         <v>0</v>
@@ -24418,7 +24446,7 @@
         <v>10</v>
       </c>
       <c r="I222" s="9" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
@@ -24432,10 +24460,10 @@
         <v>32</v>
       </c>
       <c r="D223" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F223" s="6">
         <v>0</v>
@@ -24447,7 +24475,7 @@
         <v>10</v>
       </c>
       <c r="I223" s="9" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
@@ -24461,10 +24489,10 @@
         <v>32</v>
       </c>
       <c r="D224" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F224" s="6">
         <v>0</v>
@@ -24476,7 +24504,7 @@
         <v>10</v>
       </c>
       <c r="I224" s="9" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
@@ -24490,10 +24518,10 @@
         <v>32</v>
       </c>
       <c r="D225" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F225" s="6">
         <v>0</v>
@@ -24505,7 +24533,7 @@
         <v>10</v>
       </c>
       <c r="I225" s="9" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="16.5">
@@ -24519,10 +24547,10 @@
         <v>32</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F226" s="6">
         <v>0</v>
@@ -24534,7 +24562,7 @@
         <v>1</v>
       </c>
       <c r="I226" s="9" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.5">
@@ -24548,10 +24576,10 @@
         <v>32</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F227" s="6">
         <v>0</v>
@@ -24563,7 +24591,7 @@
         <v>1</v>
       </c>
       <c r="I227" s="9" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="16.5">
@@ -24577,10 +24605,10 @@
         <v>32</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F228" s="6">
         <v>0</v>
@@ -24592,7 +24620,7 @@
         <v>1</v>
       </c>
       <c r="I228" s="9" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="16.5">
@@ -24606,10 +24634,10 @@
         <v>32</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F229" s="6">
         <v>0</v>
@@ -24621,7 +24649,7 @@
         <v>1</v>
       </c>
       <c r="I229" s="9" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="16.5">
@@ -24635,10 +24663,10 @@
         <v>32</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F230" s="6">
         <v>0</v>
@@ -24650,7 +24678,7 @@
         <v>1</v>
       </c>
       <c r="I230" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="16.5">
@@ -24664,10 +24692,10 @@
         <v>32</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F231" s="6">
         <v>0</v>
@@ -24679,7 +24707,7 @@
         <v>1</v>
       </c>
       <c r="I231" s="9" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="16.5">
@@ -24693,10 +24721,10 @@
         <v>32</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F232" s="6">
         <v>0</v>
@@ -24708,7 +24736,7 @@
         <v>1</v>
       </c>
       <c r="I232" s="9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="16.5">
@@ -24722,10 +24750,10 @@
         <v>32</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F233" s="6">
         <v>0</v>
@@ -24737,7 +24765,7 @@
         <v>1</v>
       </c>
       <c r="I233" s="9" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="16.5">
@@ -24751,10 +24779,10 @@
         <v>32</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F234" s="6">
         <v>0</v>
@@ -24766,7 +24794,7 @@
         <v>1</v>
       </c>
       <c r="I234" s="9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="16.5">
@@ -24780,10 +24808,10 @@
         <v>32</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F235" s="6">
         <v>0</v>
@@ -24795,7 +24823,7 @@
         <v>1</v>
       </c>
       <c r="I235" s="9" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
@@ -24809,10 +24837,10 @@
         <v>32</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F236" s="6">
         <v>0</v>
@@ -24824,7 +24852,7 @@
         <v>1</v>
       </c>
       <c r="I236" s="9" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -24838,10 +24866,10 @@
         <v>32</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F237" s="6">
         <v>0</v>
@@ -24853,7 +24881,7 @@
         <v>1</v>
       </c>
       <c r="I237" s="9" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -24867,10 +24895,10 @@
         <v>32</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F238" s="6">
         <v>0</v>
@@ -24882,7 +24910,7 @@
         <v>2</v>
       </c>
       <c r="I238" s="9" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5">
@@ -24896,10 +24924,10 @@
         <v>32</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F239" s="6">
         <v>0</v>
@@ -24911,7 +24939,7 @@
         <v>2</v>
       </c>
       <c r="I239" s="9" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -24925,10 +24953,10 @@
         <v>32</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F240" s="6">
         <v>0</v>
@@ -24940,7 +24968,7 @@
         <v>2</v>
       </c>
       <c r="I240" s="9" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -24954,10 +24982,10 @@
         <v>32</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F241" s="6">
         <v>0</v>
@@ -24969,7 +24997,7 @@
         <v>2</v>
       </c>
       <c r="I241" s="9" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -24983,10 +25011,10 @@
         <v>32</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F242" s="6">
         <v>0</v>
@@ -24998,7 +25026,7 @@
         <v>2</v>
       </c>
       <c r="I242" s="9" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -25012,10 +25040,10 @@
         <v>32</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F243" s="6">
         <v>0</v>
@@ -25027,7 +25055,7 @@
         <v>2</v>
       </c>
       <c r="I243" s="9" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -25041,10 +25069,10 @@
         <v>32</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F244" s="6">
         <v>0</v>
@@ -25056,7 +25084,7 @@
         <v>2</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -25070,10 +25098,10 @@
         <v>32</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F245" s="6">
         <v>0</v>
@@ -25085,7 +25113,7 @@
         <v>2</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -25099,10 +25127,10 @@
         <v>32</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F246" s="6">
         <v>0</v>
@@ -25114,7 +25142,7 @@
         <v>2</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -25128,10 +25156,10 @@
         <v>32</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F247" s="6">
         <v>0</v>
@@ -25143,7 +25171,7 @@
         <v>2</v>
       </c>
       <c r="I247" s="9" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -25157,10 +25185,10 @@
         <v>32</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F248" s="6">
         <v>0</v>
@@ -25172,7 +25200,7 @@
         <v>2</v>
       </c>
       <c r="I248" s="9" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -25186,10 +25214,10 @@
         <v>32</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F249" s="6">
         <v>0</v>
@@ -25201,7 +25229,7 @@
         <v>2</v>
       </c>
       <c r="I249" s="9" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -25215,10 +25243,10 @@
         <v>32</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F250" s="6">
         <v>0</v>
@@ -25230,7 +25258,7 @@
         <v>3</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -25244,10 +25272,10 @@
         <v>32</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F251" s="6">
         <v>0</v>
@@ -25259,7 +25287,7 @@
         <v>3</v>
       </c>
       <c r="I251" s="9" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5">
@@ -25273,10 +25301,10 @@
         <v>32</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F252" s="6">
         <v>0</v>
@@ -25288,7 +25316,7 @@
         <v>3</v>
       </c>
       <c r="I252" s="9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
@@ -25302,10 +25330,10 @@
         <v>32</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F253" s="6">
         <v>0</v>
@@ -25317,7 +25345,7 @@
         <v>3</v>
       </c>
       <c r="I253" s="9" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
@@ -25331,10 +25359,10 @@
         <v>32</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F254" s="6">
         <v>0</v>
@@ -25346,7 +25374,7 @@
         <v>3</v>
       </c>
       <c r="I254" s="9" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -25360,10 +25388,10 @@
         <v>32</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F255" s="6">
         <v>0</v>
@@ -25375,7 +25403,7 @@
         <v>3</v>
       </c>
       <c r="I255" s="9" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5">
@@ -25389,10 +25417,10 @@
         <v>32</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F256" s="6">
         <v>0</v>
@@ -25404,7 +25432,7 @@
         <v>3</v>
       </c>
       <c r="I256" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="16.5">
@@ -25418,10 +25446,10 @@
         <v>32</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F257" s="6">
         <v>0</v>
@@ -25433,7 +25461,7 @@
         <v>3</v>
       </c>
       <c r="I257" s="9" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="16.5">
@@ -25447,10 +25475,10 @@
         <v>32</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F258" s="6">
         <v>0</v>
@@ -25462,7 +25490,7 @@
         <v>3</v>
       </c>
       <c r="I258" s="9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="16.5">
@@ -25476,10 +25504,10 @@
         <v>32</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F259" s="6">
         <v>0</v>
@@ -25491,7 +25519,7 @@
         <v>3</v>
       </c>
       <c r="I259" s="9" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="16.5">
@@ -25505,10 +25533,10 @@
         <v>32</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F260" s="6">
         <v>0</v>
@@ -25520,7 +25548,7 @@
         <v>3</v>
       </c>
       <c r="I260" s="9" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="16.5">
@@ -25534,10 +25562,10 @@
         <v>32</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F261" s="6">
         <v>0</v>
@@ -25549,7 +25577,7 @@
         <v>3</v>
       </c>
       <c r="I261" s="9" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -25563,10 +25591,10 @@
         <v>32</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F262" s="6">
         <v>0</v>
@@ -25578,7 +25606,7 @@
         <v>4</v>
       </c>
       <c r="I262" s="9" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5">
@@ -25592,10 +25620,10 @@
         <v>32</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F263" s="6">
         <v>0</v>
@@ -25607,7 +25635,7 @@
         <v>4</v>
       </c>
       <c r="I263" s="9" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="16.5">
@@ -25621,10 +25649,10 @@
         <v>32</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F264" s="6">
         <v>0</v>
@@ -25636,7 +25664,7 @@
         <v>4</v>
       </c>
       <c r="I264" s="9" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="16.5">
@@ -25650,10 +25678,10 @@
         <v>32</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F265" s="6">
         <v>0</v>
@@ -25665,7 +25693,7 @@
         <v>4</v>
       </c>
       <c r="I265" s="9" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="16.5">
@@ -25679,10 +25707,10 @@
         <v>32</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F266" s="6">
         <v>0</v>
@@ -25694,7 +25722,7 @@
         <v>4</v>
       </c>
       <c r="I266" s="9" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="16.5">
@@ -25708,10 +25736,10 @@
         <v>32</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F267" s="6">
         <v>0</v>
@@ -25723,7 +25751,7 @@
         <v>4</v>
       </c>
       <c r="I267" s="9" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="16.5">
@@ -25737,10 +25765,10 @@
         <v>32</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F268" s="6">
         <v>0</v>
@@ -25752,7 +25780,7 @@
         <v>4</v>
       </c>
       <c r="I268" s="9" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="16.5">
@@ -25766,10 +25794,10 @@
         <v>32</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F269" s="6">
         <v>0</v>
@@ -25781,7 +25809,7 @@
         <v>4</v>
       </c>
       <c r="I269" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="16.5">
@@ -25795,10 +25823,10 @@
         <v>32</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F270" s="6">
         <v>0</v>
@@ -25810,7 +25838,7 @@
         <v>4</v>
       </c>
       <c r="I270" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="16.5">
@@ -25824,10 +25852,10 @@
         <v>32</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F271" s="6">
         <v>0</v>
@@ -25839,7 +25867,7 @@
         <v>4</v>
       </c>
       <c r="I271" s="9" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="16.5">
@@ -25853,10 +25881,10 @@
         <v>32</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F272" s="6">
         <v>0</v>
@@ -25868,7 +25896,7 @@
         <v>4</v>
       </c>
       <c r="I272" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5">
@@ -25882,10 +25910,10 @@
         <v>32</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F273" s="6">
         <v>0</v>
@@ -25897,7 +25925,7 @@
         <v>4</v>
       </c>
       <c r="I273" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5">
@@ -25911,10 +25939,10 @@
         <v>32</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F274" s="6">
         <v>0</v>
@@ -25926,7 +25954,7 @@
         <v>5</v>
       </c>
       <c r="I274" s="9" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5">
@@ -25940,10 +25968,10 @@
         <v>32</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F275" s="6">
         <v>0</v>
@@ -25955,7 +25983,7 @@
         <v>5</v>
       </c>
       <c r="I275" s="9" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="16.5">
@@ -25969,10 +25997,10 @@
         <v>32</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F276" s="6">
         <v>0</v>
@@ -25984,7 +26012,7 @@
         <v>5</v>
       </c>
       <c r="I276" s="9" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5">
@@ -25998,10 +26026,10 @@
         <v>32</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F277" s="6">
         <v>0</v>
@@ -26013,7 +26041,7 @@
         <v>5</v>
       </c>
       <c r="I277" s="9" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -26027,10 +26055,10 @@
         <v>32</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F278" s="6">
         <v>0</v>
@@ -26042,7 +26070,7 @@
         <v>5</v>
       </c>
       <c r="I278" s="9" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -26056,10 +26084,10 @@
         <v>32</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F279" s="6">
         <v>0</v>
@@ -26071,7 +26099,7 @@
         <v>5</v>
       </c>
       <c r="I279" s="9" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -26085,10 +26113,10 @@
         <v>32</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F280" s="6">
         <v>0</v>
@@ -26100,7 +26128,7 @@
         <v>5</v>
       </c>
       <c r="I280" s="9" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -26114,10 +26142,10 @@
         <v>32</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F281" s="6">
         <v>0</v>
@@ -26129,7 +26157,7 @@
         <v>5</v>
       </c>
       <c r="I281" s="9" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -26143,10 +26171,10 @@
         <v>32</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F282" s="6">
         <v>0</v>
@@ -26158,7 +26186,7 @@
         <v>5</v>
       </c>
       <c r="I282" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -26172,10 +26200,10 @@
         <v>32</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F283" s="6">
         <v>0</v>
@@ -26187,7 +26215,7 @@
         <v>5</v>
       </c>
       <c r="I283" s="9" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5">
@@ -26201,10 +26229,10 @@
         <v>32</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F284" s="6">
         <v>0</v>
@@ -26216,7 +26244,7 @@
         <v>5</v>
       </c>
       <c r="I284" s="9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="16.5">
@@ -26230,10 +26258,10 @@
         <v>32</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F285" s="6">
         <v>0</v>
@@ -26245,7 +26273,7 @@
         <v>5</v>
       </c>
       <c r="I285" s="9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="16.5">
@@ -26259,10 +26287,10 @@
         <v>32</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F286" s="6">
         <v>0</v>
@@ -26274,7 +26302,7 @@
         <v>6</v>
       </c>
       <c r="I286" s="9" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="16.5">
@@ -26288,10 +26316,10 @@
         <v>32</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F287" s="6">
         <v>0</v>
@@ -26303,7 +26331,7 @@
         <v>6</v>
       </c>
       <c r="I287" s="9" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="16.5">
@@ -26317,10 +26345,10 @@
         <v>32</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F288" s="6">
         <v>0</v>
@@ -26332,7 +26360,7 @@
         <v>6</v>
       </c>
       <c r="I288" s="9" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="16.5">
@@ -26346,10 +26374,10 @@
         <v>32</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F289" s="6">
         <v>0</v>
@@ -26361,7 +26389,7 @@
         <v>6</v>
       </c>
       <c r="I289" s="9" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="16.5">
@@ -26375,10 +26403,10 @@
         <v>32</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F290" s="6">
         <v>0</v>
@@ -26390,7 +26418,7 @@
         <v>6</v>
       </c>
       <c r="I290" s="9" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5">
@@ -26404,10 +26432,10 @@
         <v>32</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F291" s="6">
         <v>0</v>
@@ -26419,7 +26447,7 @@
         <v>6</v>
       </c>
       <c r="I291" s="9" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5">
@@ -26433,10 +26461,10 @@
         <v>32</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F292" s="6">
         <v>0</v>
@@ -26448,7 +26476,7 @@
         <v>6</v>
       </c>
       <c r="I292" s="9" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="16.5">
@@ -26462,10 +26490,10 @@
         <v>32</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F293" s="6">
         <v>0</v>
@@ -26477,7 +26505,7 @@
         <v>6</v>
       </c>
       <c r="I293" s="9" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="16.5">
@@ -26491,10 +26519,10 @@
         <v>32</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F294" s="6">
         <v>0</v>
@@ -26506,7 +26534,7 @@
         <v>6</v>
       </c>
       <c r="I294" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="16.5">
@@ -26520,10 +26548,10 @@
         <v>32</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F295" s="6">
         <v>0</v>
@@ -26535,7 +26563,7 @@
         <v>6</v>
       </c>
       <c r="I295" s="9" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="16.5">
@@ -26549,10 +26577,10 @@
         <v>32</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F296" s="6">
         <v>0</v>
@@ -26564,7 +26592,7 @@
         <v>6</v>
       </c>
       <c r="I296" s="9" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="16.5">
@@ -26578,10 +26606,10 @@
         <v>32</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F297" s="6">
         <v>0</v>
@@ -26593,7 +26621,7 @@
         <v>6</v>
       </c>
       <c r="I297" s="9" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="16.5">
@@ -26607,10 +26635,10 @@
         <v>32</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F298" s="6">
         <v>0</v>
@@ -26622,7 +26650,7 @@
         <v>7</v>
       </c>
       <c r="I298" s="9" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="16.5">
@@ -26636,10 +26664,10 @@
         <v>32</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F299" s="6">
         <v>0</v>
@@ -26651,7 +26679,7 @@
         <v>7</v>
       </c>
       <c r="I299" s="9" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="16.5">
@@ -26665,10 +26693,10 @@
         <v>32</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F300" s="6">
         <v>0</v>
@@ -26680,7 +26708,7 @@
         <v>7</v>
       </c>
       <c r="I300" s="9" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="16.5">
@@ -26694,10 +26722,10 @@
         <v>32</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F301" s="6">
         <v>0</v>
@@ -26709,7 +26737,7 @@
         <v>7</v>
       </c>
       <c r="I301" s="9" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="16.5">
@@ -26723,10 +26751,10 @@
         <v>32</v>
       </c>
       <c r="D302" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F302" s="6">
         <v>0</v>
@@ -26738,7 +26766,7 @@
         <v>7</v>
       </c>
       <c r="I302" s="9" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="16.5">
@@ -26752,10 +26780,10 @@
         <v>32</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F303" s="6">
         <v>0</v>
@@ -26767,7 +26795,7 @@
         <v>7</v>
       </c>
       <c r="I303" s="9" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="16.5">
@@ -26781,10 +26809,10 @@
         <v>32</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F304" s="6">
         <v>0</v>
@@ -26796,7 +26824,7 @@
         <v>7</v>
       </c>
       <c r="I304" s="9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5">
@@ -26810,10 +26838,10 @@
         <v>32</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F305" s="6">
         <v>0</v>
@@ -26825,7 +26853,7 @@
         <v>7</v>
       </c>
       <c r="I305" s="9" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
@@ -26839,10 +26867,10 @@
         <v>32</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F306" s="6">
         <v>0</v>
@@ -26854,7 +26882,7 @@
         <v>7</v>
       </c>
       <c r="I306" s="9" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -26868,10 +26896,10 @@
         <v>32</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F307" s="6">
         <v>0</v>
@@ -26883,7 +26911,7 @@
         <v>7</v>
       </c>
       <c r="I307" s="9" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -26897,10 +26925,10 @@
         <v>32</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F308" s="6">
         <v>0</v>
@@ -26912,7 +26940,7 @@
         <v>7</v>
       </c>
       <c r="I308" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5">
@@ -26926,10 +26954,10 @@
         <v>32</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F309" s="6">
         <v>0</v>
@@ -26941,7 +26969,7 @@
         <v>7</v>
       </c>
       <c r="I309" s="9" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="16.5">
@@ -26955,10 +26983,10 @@
         <v>32</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F310" s="6">
         <v>0</v>
@@ -26970,7 +26998,7 @@
         <v>8</v>
       </c>
       <c r="I310" s="9" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="16.5">
@@ -26984,10 +27012,10 @@
         <v>32</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F311" s="6">
         <v>0</v>
@@ -26999,7 +27027,7 @@
         <v>8</v>
       </c>
       <c r="I311" s="9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
@@ -27013,10 +27041,10 @@
         <v>32</v>
       </c>
       <c r="D312" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F312" s="6">
         <v>0</v>
@@ -27028,7 +27056,7 @@
         <v>8</v>
       </c>
       <c r="I312" s="9" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="16.5">
@@ -27042,10 +27070,10 @@
         <v>32</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F313" s="6">
         <v>0</v>
@@ -27057,7 +27085,7 @@
         <v>8</v>
       </c>
       <c r="I313" s="9" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -27071,10 +27099,10 @@
         <v>32</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F314" s="6">
         <v>0</v>
@@ -27086,7 +27114,7 @@
         <v>8</v>
       </c>
       <c r="I314" s="9" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
@@ -27100,10 +27128,10 @@
         <v>32</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F315" s="6">
         <v>0</v>
@@ -27115,7 +27143,7 @@
         <v>8</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="16.5">
@@ -27129,10 +27157,10 @@
         <v>32</v>
       </c>
       <c r="D316" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F316" s="6">
         <v>0</v>
@@ -27144,7 +27172,7 @@
         <v>8</v>
       </c>
       <c r="I316" s="9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="16.5">
@@ -27158,10 +27186,10 @@
         <v>32</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F317" s="6">
         <v>0</v>
@@ -27173,7 +27201,7 @@
         <v>8</v>
       </c>
       <c r="I317" s="9" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
@@ -27187,10 +27215,10 @@
         <v>32</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F318" s="6">
         <v>0</v>
@@ -27202,7 +27230,7 @@
         <v>8</v>
       </c>
       <c r="I318" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
@@ -27216,10 +27244,10 @@
         <v>32</v>
       </c>
       <c r="D319" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F319" s="6">
         <v>0</v>
@@ -27231,7 +27259,7 @@
         <v>8</v>
       </c>
       <c r="I319" s="9" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -27245,10 +27273,10 @@
         <v>32</v>
       </c>
       <c r="D320" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F320" s="6">
         <v>0</v>
@@ -27260,7 +27288,7 @@
         <v>8</v>
       </c>
       <c r="I320" s="9" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16.5">
@@ -27274,10 +27302,10 @@
         <v>32</v>
       </c>
       <c r="D321" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F321" s="6">
         <v>0</v>
@@ -27289,7 +27317,7 @@
         <v>8</v>
       </c>
       <c r="I321" s="9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="16.5">
@@ -27303,10 +27331,10 @@
         <v>32</v>
       </c>
       <c r="D322" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F322" s="6">
         <v>0</v>
@@ -27318,7 +27346,7 @@
         <v>9</v>
       </c>
       <c r="I322" s="9" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="16.5">
@@ -27332,10 +27360,10 @@
         <v>32</v>
       </c>
       <c r="D323" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F323" s="6">
         <v>0</v>
@@ -27347,7 +27375,7 @@
         <v>9</v>
       </c>
       <c r="I323" s="9" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="16.5">
@@ -27361,10 +27389,10 @@
         <v>32</v>
       </c>
       <c r="D324" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F324" s="6">
         <v>0</v>
@@ -27376,7 +27404,7 @@
         <v>9</v>
       </c>
       <c r="I324" s="9" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="16.5">
@@ -27390,10 +27418,10 @@
         <v>32</v>
       </c>
       <c r="D325" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F325" s="6">
         <v>0</v>
@@ -27405,7 +27433,7 @@
         <v>9</v>
       </c>
       <c r="I325" s="9" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="16.5">
@@ -27419,10 +27447,10 @@
         <v>32</v>
       </c>
       <c r="D326" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F326" s="6">
         <v>0</v>
@@ -27434,7 +27462,7 @@
         <v>9</v>
       </c>
       <c r="I326" s="9" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="16.5">
@@ -27448,10 +27476,10 @@
         <v>32</v>
       </c>
       <c r="D327" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F327" s="6">
         <v>0</v>
@@ -27463,7 +27491,7 @@
         <v>9</v>
       </c>
       <c r="I327" s="9" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="16.5">
@@ -27477,10 +27505,10 @@
         <v>32</v>
       </c>
       <c r="D328" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F328" s="6">
         <v>0</v>
@@ -27492,7 +27520,7 @@
         <v>9</v>
       </c>
       <c r="I328" s="9" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="16.5">
@@ -27506,10 +27534,10 @@
         <v>32</v>
       </c>
       <c r="D329" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F329" s="6">
         <v>0</v>
@@ -27521,7 +27549,7 @@
         <v>9</v>
       </c>
       <c r="I329" s="9" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="16.5">
@@ -27535,10 +27563,10 @@
         <v>32</v>
       </c>
       <c r="D330" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F330" s="6">
         <v>0</v>
@@ -27550,7 +27578,7 @@
         <v>9</v>
       </c>
       <c r="I330" s="9" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="16.5">
@@ -27564,10 +27592,10 @@
         <v>32</v>
       </c>
       <c r="D331" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F331" s="6">
         <v>0</v>
@@ -27579,7 +27607,7 @@
         <v>9</v>
       </c>
       <c r="I331" s="9" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="16.5">
@@ -27593,10 +27621,10 @@
         <v>32</v>
       </c>
       <c r="D332" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F332" s="6">
         <v>0</v>
@@ -27608,7 +27636,7 @@
         <v>9</v>
       </c>
       <c r="I332" s="9" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="16.5">
@@ -27622,10 +27650,10 @@
         <v>32</v>
       </c>
       <c r="D333" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F333" s="6">
         <v>0</v>
@@ -27637,7 +27665,7 @@
         <v>9</v>
       </c>
       <c r="I333" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="334" spans="1:9" ht="16.5">
@@ -27651,10 +27679,10 @@
         <v>32</v>
       </c>
       <c r="D334" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F334" s="6">
         <v>0</v>
@@ -27666,7 +27694,7 @@
         <v>10</v>
       </c>
       <c r="I334" s="9" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="335" spans="1:9" ht="16.5">
@@ -27680,10 +27708,10 @@
         <v>32</v>
       </c>
       <c r="D335" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F335" s="6">
         <v>0</v>
@@ -27695,7 +27723,7 @@
         <v>10</v>
       </c>
       <c r="I335" s="9" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="336" spans="1:9" ht="16.5">
@@ -27709,10 +27737,10 @@
         <v>32</v>
       </c>
       <c r="D336" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F336" s="6">
         <v>0</v>
@@ -27724,7 +27752,7 @@
         <v>10</v>
       </c>
       <c r="I336" s="9" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="337" spans="1:9" ht="16.5">
@@ -27738,10 +27766,10 @@
         <v>32</v>
       </c>
       <c r="D337" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F337" s="6">
         <v>0</v>
@@ -27753,7 +27781,7 @@
         <v>10</v>
       </c>
       <c r="I337" s="9" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="338" spans="1:9" ht="16.5">
@@ -27767,10 +27795,10 @@
         <v>32</v>
       </c>
       <c r="D338" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F338" s="6">
         <v>0</v>
@@ -27782,7 +27810,7 @@
         <v>10</v>
       </c>
       <c r="I338" s="9" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="16.5">
@@ -27796,10 +27824,10 @@
         <v>32</v>
       </c>
       <c r="D339" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F339" s="6">
         <v>0</v>
@@ -27811,7 +27839,7 @@
         <v>10</v>
       </c>
       <c r="I339" s="9" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="16.5">
@@ -27825,10 +27853,10 @@
         <v>32</v>
       </c>
       <c r="D340" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F340" s="6">
         <v>0</v>
@@ -27840,7 +27868,7 @@
         <v>10</v>
       </c>
       <c r="I340" s="9" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="341" spans="1:9" ht="16.5">
@@ -27854,10 +27882,10 @@
         <v>32</v>
       </c>
       <c r="D341" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F341" s="6">
         <v>0</v>
@@ -27869,7 +27897,7 @@
         <v>10</v>
       </c>
       <c r="I341" s="9" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="342" spans="1:9" ht="16.5">
@@ -27883,10 +27911,10 @@
         <v>32</v>
       </c>
       <c r="D342" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F342" s="6">
         <v>0</v>
@@ -27898,7 +27926,7 @@
         <v>10</v>
       </c>
       <c r="I342" s="9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="16.5">
@@ -27912,10 +27940,10 @@
         <v>32</v>
       </c>
       <c r="D343" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F343" s="6">
         <v>0</v>
@@ -27927,7 +27955,7 @@
         <v>10</v>
       </c>
       <c r="I343" s="9" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="344" spans="1:9" ht="16.5">
@@ -27941,10 +27969,10 @@
         <v>32</v>
       </c>
       <c r="D344" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F344" s="6">
         <v>0</v>
@@ -27956,7 +27984,7 @@
         <v>10</v>
       </c>
       <c r="I344" s="9" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="345" spans="1:9" ht="16.5">
@@ -27970,10 +27998,10 @@
         <v>32</v>
       </c>
       <c r="D345" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F345" s="6">
         <v>0</v>
@@ -27985,11 +28013,10 @@
         <v>10</v>
       </c>
       <c r="I345" s="9" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I345"/>
   <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
